--- a/own_project/data_dictionary_status_v0.3.xlsx
+++ b/own_project/data_dictionary_status_v0.3.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="107">
   <si>
     <t>userid</t>
   </si>
@@ -342,6 +342,9 @@
   </si>
   <si>
     <t>records</t>
+  </si>
+  <si>
+    <t>QUERY TO BE LAUNCHED</t>
   </si>
 </sst>
 </file>
@@ -350,7 +353,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -376,7 +379,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -401,6 +404,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="15">
     <border>
@@ -586,9 +595,8 @@
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -599,9 +607,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -920,7 +929,7 @@
   <dimension ref="A1:V14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -943,72 +952,72 @@
   <sheetData>
     <row r="1" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="L2" s="19" t="s">
+      <c r="L2" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="M2" s="19" t="s">
+      <c r="M2" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="N2" s="18" t="s">
+      <c r="N2" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="O2" s="18" t="s">
+      <c r="O2" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="P2" s="18" t="s">
+      <c r="P2" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="Q2" s="18" t="s">
+      <c r="Q2" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="R2" s="18" t="s">
+      <c r="R2" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="S2" s="18" t="s">
+      <c r="S2" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="T2" s="18" t="s">
+      <c r="T2" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="U2" s="20" t="s">
+      <c r="U2" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="V2" s="21" t="s">
+      <c r="V2" s="20" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="21" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1076,7 +1085,7 @@
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="22" t="s">
         <v>32</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -1144,7 +1153,7 @@
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="22" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -1212,7 +1221,7 @@
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="22" t="s">
         <v>35</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -1280,7 +1289,7 @@
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="22" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -1348,7 +1357,7 @@
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="22" t="s">
         <v>25</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -1416,7 +1425,7 @@
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="22" t="s">
         <v>89</v>
       </c>
       <c r="B9" s="7" t="s">
@@ -1484,7 +1493,7 @@
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="22" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -1544,15 +1553,15 @@
       <c r="T10" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="U10" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="V10" s="12" t="s">
-        <v>20</v>
+      <c r="U10" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="V10" s="27" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="22" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -1620,7 +1629,7 @@
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="22" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -1632,37 +1641,37 @@
       <c r="D12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="12" t="s">
         <v>88</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="13" t="s">
+      <c r="H12" s="12" t="s">
         <v>37</v>
       </c>
       <c r="I12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J12" s="13" t="s">
+      <c r="J12" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="K12" s="13" t="s">
+      <c r="K12" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="L12" s="13" t="s">
+      <c r="L12" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="M12" s="13" t="s">
+      <c r="M12" s="12" t="s">
         <v>69</v>
       </c>
       <c r="N12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="O12" s="13" t="s">
+      <c r="O12" s="12" t="s">
         <v>51</v>
       </c>
       <c r="P12" s="5" t="s">
@@ -1671,13 +1680,13 @@
       <c r="Q12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="R12" s="13" t="s">
+      <c r="R12" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="S12" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="T12" s="13" t="s">
+      <c r="S12" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="T12" s="12" t="s">
         <v>51</v>
       </c>
       <c r="U12" s="5" t="s">
@@ -1688,74 +1697,74 @@
       </c>
     </row>
     <row r="13" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="23" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="13">
         <v>14235162</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="13">
         <v>7597555</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="13">
         <v>32</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="13">
         <v>6</v>
       </c>
-      <c r="G13" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="I13" s="14">
+      <c r="G13" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" s="13">
         <v>16266</v>
       </c>
-      <c r="J13" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="L13" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="M13" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="N13" s="15">
+      <c r="J13" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="L13" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="M13" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="N13" s="14">
         <v>32</v>
       </c>
-      <c r="O13" s="15">
+      <c r="O13" s="14">
         <v>6</v>
       </c>
-      <c r="P13" s="14">
+      <c r="P13" s="13">
         <v>13728</v>
       </c>
-      <c r="Q13" s="15">
+      <c r="Q13" s="14">
         <v>32</v>
       </c>
-      <c r="R13" s="15">
+      <c r="R13" s="14">
         <v>6</v>
       </c>
-      <c r="S13" s="25"/>
-      <c r="T13" s="25"/>
-      <c r="U13" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="V13" s="16" t="s">
+      <c r="S13" s="24"/>
+      <c r="T13" s="24"/>
+      <c r="U13" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="V13" s="15" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="B14" s="27">
+      <c r="B14" s="26">
         <v>248757662</v>
       </c>
     </row>

--- a/own_project/data_dictionary_status_v0.3.xlsx
+++ b/own_project/data_dictionary_status_v0.3.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="106">
   <si>
     <t>userid</t>
   </si>
@@ -317,9 +317,6 @@
     <t>zzz_ema_genre_popularity</t>
   </si>
   <si>
-    <t>zzz_ema_firstwatched_hour</t>
-  </si>
-  <si>
     <t>hourofday</t>
   </si>
   <si>
@@ -344,7 +341,7 @@
     <t>records</t>
   </si>
   <si>
-    <t>QUERY TO BE LAUNCHED</t>
+    <t>zzz_ema_first_watched_hour</t>
   </si>
 </sst>
 </file>
@@ -379,7 +376,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -404,12 +401,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="15">
     <border>
@@ -582,7 +573,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -610,7 +601,6 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -929,7 +919,7 @@
   <dimension ref="A1:V14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1004,10 +994,10 @@
         <v>54</v>
       </c>
       <c r="S2" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="T2" s="17" t="s">
         <v>99</v>
-      </c>
-      <c r="T2" s="17" t="s">
-        <v>100</v>
       </c>
       <c r="U2" s="19" t="s">
         <v>93</v>
@@ -1072,10 +1062,10 @@
         <v>55</v>
       </c>
       <c r="S3" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="T3" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="U3" s="2" t="s">
         <v>93</v>
@@ -1149,7 +1139,7 @@
         <v>92</v>
       </c>
       <c r="V4" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
@@ -1344,10 +1334,10 @@
         <v>52</v>
       </c>
       <c r="S7" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="T7" s="8" t="s">
         <v>101</v>
-      </c>
-      <c r="T7" s="8" t="s">
-        <v>102</v>
       </c>
       <c r="U7" s="5" t="s">
         <v>94</v>
@@ -1511,8 +1501,8 @@
       <c r="F10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="11" t="s">
-        <v>20</v>
+      <c r="G10" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="H10" s="11" t="s">
         <v>20</v>
@@ -1553,11 +1543,11 @@
       <c r="T10" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="U10" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="V10" s="27" t="s">
-        <v>106</v>
+      <c r="U10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="V10" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
@@ -1625,7 +1615,7 @@
         <v>96</v>
       </c>
       <c r="V11" s="6" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
@@ -1762,7 +1752,7 @@
     </row>
     <row r="14" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B14" s="26">
         <v>248757662</v>
